--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_euclidean_prj_pseudoinverse_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_euclidean_prj_pseudoinverse_kernel.xlsx
@@ -10,6 +10,8 @@
     <sheet name="pseudoinverse_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="pseudoinverse_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="pseudoinverse_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="pseudoinverse_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="pseudoinverse_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1469,4 +1471,704 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>79.79921971643353</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5571828372776508</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7979921971643353</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7889925134197748</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>79.31054766909747</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5418966371447217</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7931054766909749</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7868782898397845</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>87.75915016565888</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3254000686079962</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8775915016565887</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8777390408053695</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>74.87538819539961</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7632522051533063</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7487538819539962</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7419616048416301</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>56.49080009342642</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.399567238030916</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5649080009342641</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5124274930057203</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>74.35566051609443</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6438966161261003</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7435566051609444</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7416145974368891</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>79.04004359899307</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5836934115116794</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7904004359899307</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7890964918676496</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>79.72992845958875</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4975575241415451</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7972992845958875</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7902174641973974</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>84.49640567824981</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3903992517540852</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8449640567824982</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8434974115460957</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>76.24235503767333</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5607613437343388</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7624235503767334</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.752145994145817</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>70.04749176030934</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7814304267366727</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7004749176030934</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6929219198525787</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>73.87987785361466</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6986401309569678</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7387987785361465</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7254985379366903</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>89.04990527599719</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2850675636136051</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.890499052759972</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8912864406193902</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>83.99579581138245</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4464405361581157</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8399579581138245</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8271218577643585</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>90.79646017699115</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2591540568935063</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9079646017699116</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9037035070938606</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>78.65793533392733</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.582289323189414</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7865793533392735</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7776735442915339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>70.53694236109308</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6612313988308112</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7053694236109309</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6988471400844728</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>73.25392088166852</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6557129969665161</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7325392088166852</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7252309491866764</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>81.3081428040035</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4864994935070476</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8130814280400349</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.806297532029658</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>65.30878294794937</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9735426127910614</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6530878294794937</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6341308818391245</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>54.14510506146247</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.407757702562958</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5414510506146246</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5020339906896443</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>65.41492573465169</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8677422801653544</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6541492573465169</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6432045752250666</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>54.69199560549832</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.4229875639081</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5469199560549832</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5028634761182331</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>73.88904748310972</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.594186332821846</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7388904748310972</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7374135604697371</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>70.29922404173047</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6744149123628934</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7029922404173047</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.695175441898132</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>63.79752420003634</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8809577771152058</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6379752420003634</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6210720091574109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>54.41509009593509</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.981497082238396</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5441509009593509</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5333400245661741</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>68.0590662548984</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7976756076018016</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6805906625489839</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6737968182169126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>72.10001816624711</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6106142416596413</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7210001816624712</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7163737293799692</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>78.87914255313628</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4711250248132274</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7887914255313627</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7755181917184887</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>84.94407391067396</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4128799654077738</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8494407391067398</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8409697870543071</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>68.73620014013962</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7932549995168423</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6873620014013962</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6737512071756004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_euclidean_prj_pseudoinverse_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_euclidean_prj_pseudoinverse_kernel.xlsx
@@ -10,8 +10,10 @@
     <sheet name="pseudoinverse_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="pseudoinverse_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="pseudoinverse_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="pseudoinverse_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="pseudoinverse_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="pseudoinverse_sr_0.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="pseudoinverse_sr_0.2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="pseudoinverse_sr_0.15" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="pseudoinverse_sr_0.1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -471,16 +473,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96.07669616519175</v>
+        <v>97.61061946902655</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1011962117367754</v>
+        <v>0.07038092062502983</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9607669616519173</v>
+        <v>0.9761061946902654</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9605094883231846</v>
+        <v>0.9760875491592971</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +492,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.33332468273947</v>
+        <v>93.77581120943952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2157156777713679</v>
+        <v>0.222163868440505</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9233332468273947</v>
+        <v>0.9377581120943953</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9210292658339956</v>
+        <v>0.9294549192587114</v>
       </c>
     </row>
     <row r="4">
@@ -509,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.40117994100294</v>
+        <v>96.69616519174041</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1137063066789779</v>
+        <v>0.110181423594319</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9640117994100296</v>
+        <v>0.9669616519174042</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9624865243595245</v>
+        <v>0.9658856422490885</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.53687315634218</v>
+        <v>93.1858407079646</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1942143619790538</v>
+        <v>0.1685829569087218</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9253687315634218</v>
+        <v>0.931858407079646</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9220583858543021</v>
+        <v>0.9292743053176278</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +549,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80.77111393697177</v>
+        <v>83.27502833069489</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5770762162903945</v>
+        <v>0.4048119079328899</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8077111393697176</v>
+        <v>0.832750283306949</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7885169361496456</v>
+        <v>0.819006208896744</v>
       </c>
     </row>
     <row r="7">
@@ -566,16 +568,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89.68105260426128</v>
+        <v>89.53857732333324</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2784788293763995</v>
+        <v>0.2988515683362493</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8968105260426128</v>
+        <v>0.8953857732333326</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8872550571400986</v>
+        <v>0.8860915637351022</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +587,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>91.97640117994101</v>
+        <v>92.71386430678466</v>
       </c>
       <c r="C8" t="n">
-        <v>0.204282599928653</v>
+        <v>0.1828444529232608</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9197640117994099</v>
+        <v>0.9271386430678465</v>
       </c>
       <c r="E8" t="n">
-        <v>0.912601933899464</v>
+        <v>0.9231650420995692</v>
       </c>
     </row>
     <row r="9">
@@ -604,16 +606,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93.45132743362832</v>
+        <v>93.71698717116931</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1600863047300663</v>
+        <v>0.153851010004837</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9345132743362832</v>
+        <v>0.937169871711693</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9337304036555544</v>
+        <v>0.9364887616785437</v>
       </c>
     </row>
     <row r="10">
@@ -623,16 +625,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>90.41297935103245</v>
+        <v>93.36283185840708</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2319970689384111</v>
+        <v>0.1818773425834176</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9041297935103245</v>
+        <v>0.9336283185840708</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9008577066218878</v>
+        <v>0.9320266497692347</v>
       </c>
     </row>
     <row r="11">
@@ -642,16 +644,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.26843657817109</v>
+        <v>91.59292035398229</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2091362106811857</v>
+        <v>0.2535710344637361</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9126843657817109</v>
+        <v>0.9159292035398231</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9040860626996119</v>
+        <v>0.9065987284806665</v>
       </c>
     </row>
     <row r="12">
@@ -661,16 +663,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.36005501777697</v>
+        <v>83.36283185840708</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6610781092135464</v>
+        <v>0.6341005646164756</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8236005501777697</v>
+        <v>0.8336283185840708</v>
       </c>
       <c r="E12" t="n">
-        <v>0.812425455975531</v>
+        <v>0.8220297181260431</v>
       </c>
     </row>
     <row r="13">
@@ -680,16 +682,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>86.07669616519175</v>
+        <v>84.18879056047197</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5709164650164894</v>
+        <v>0.5445349275076297</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8607669616519175</v>
+        <v>0.8418879056047197</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8470201179138976</v>
+        <v>0.8322823157368469</v>
       </c>
     </row>
     <row r="14">
@@ -699,16 +701,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>98.76106194690266</v>
+        <v>99.26253687315634</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03880694875127422</v>
+        <v>0.03433531894789515</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9876106194690266</v>
+        <v>0.9926253687315635</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9876510007152645</v>
+        <v>0.9926235640502641</v>
       </c>
     </row>
     <row r="15">
@@ -718,16 +720,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.43952802359881</v>
+        <v>99.6165191740413</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01409504466048841</v>
+        <v>0.01164422408643304</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9943952802359881</v>
+        <v>0.996165191740413</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9944187097705252</v>
+        <v>0.9961861821519931</v>
       </c>
     </row>
     <row r="16">
@@ -737,16 +739,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.40117994100294</v>
+        <v>96.99115044247787</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08105812532167345</v>
+        <v>0.07185267436143855</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9640117994100296</v>
+        <v>0.9699115044247787</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9630703335861659</v>
+        <v>0.9692850377709903</v>
       </c>
     </row>
     <row r="17">
@@ -756,16 +758,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.86319374158369</v>
+        <v>92.59269832207313</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2434562987383171</v>
+        <v>0.2229056130221892</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9186319374158369</v>
+        <v>0.9259269832207315</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9131811588332435</v>
+        <v>0.9210990792320483</v>
       </c>
     </row>
   </sheetData>
@@ -821,16 +823,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.31580723016636</v>
+        <v>90.29498525073745</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3575484875434389</v>
+        <v>0.2750741992766658</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8731580723016634</v>
+        <v>0.9029498525073747</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8615568938827692</v>
+        <v>0.8976384216854113</v>
       </c>
     </row>
     <row r="3">
@@ -840,16 +842,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.55924359207259</v>
+        <v>83.75392520696546</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2940561840708446</v>
+        <v>0.3946558067924343</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8855924359207259</v>
+        <v>0.8375392520696545</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8802081409082725</v>
+        <v>0.821222753545198</v>
       </c>
     </row>
     <row r="4">
@@ -859,16 +861,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.23893805309734</v>
+        <v>92.06489675516225</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2331079738420764</v>
+        <v>0.2092663434203739</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9123893805309734</v>
+        <v>0.9206489675516224</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9114690559711425</v>
+        <v>0.9195207899724235</v>
       </c>
     </row>
     <row r="5">
@@ -878,16 +880,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86.01856417443057</v>
+        <v>87.28682774072441</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3718146737044056</v>
+        <v>0.3589552716701291</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8601856417443058</v>
+        <v>0.872868277407244</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8504476882310117</v>
+        <v>0.8630739797494005</v>
       </c>
     </row>
     <row r="6">
@@ -897,16 +899,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.77889947144871</v>
+        <v>72.1642920786512</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8007934763406714</v>
+        <v>0.7048536799518236</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7077889947144872</v>
+        <v>0.7216429207865119</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6877981950761389</v>
+        <v>0.7134542883734932</v>
       </c>
     </row>
     <row r="7">
@@ -916,16 +918,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.81396897897041</v>
+        <v>87.81953131082449</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4027188825421035</v>
+        <v>0.3269652201095596</v>
       </c>
       <c r="D7" t="n">
-        <v>0.848139689789704</v>
+        <v>0.8781953131082449</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8437038529256663</v>
+        <v>0.8719925683411649</v>
       </c>
     </row>
     <row r="8">
@@ -935,16 +937,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85.07409233643889</v>
+        <v>88.93805309734513</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4043423938254516</v>
+        <v>0.3020896699706403</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8507409233643889</v>
+        <v>0.8893805309734514</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8448458141089805</v>
+        <v>0.8879112024349874</v>
       </c>
     </row>
     <row r="9">
@@ -954,16 +956,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>88.90959264353498</v>
+        <v>91.65191740412979</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2580443492746175</v>
+        <v>0.2101227813089887</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8890959264353497</v>
+        <v>0.9165191740412979</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8897031491070819</v>
+        <v>0.9151217613340872</v>
       </c>
     </row>
     <row r="10">
@@ -973,16 +975,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>89.08589174646839</v>
+        <v>89.11504424778761</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2547017578142307</v>
+        <v>0.2579840766421209</v>
       </c>
       <c r="D10" t="n">
-        <v>0.890858917464684</v>
+        <v>0.891150442477876</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8903445557157725</v>
+        <v>0.8903139098337194</v>
       </c>
     </row>
     <row r="11">
@@ -992,16 +994,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>85.28023598820059</v>
+        <v>85.3400980977344</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3964933691177673</v>
+        <v>0.3866336539300391</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8528023598820059</v>
+        <v>0.8534009809773441</v>
       </c>
       <c r="E11" t="n">
-        <v>0.847341302778208</v>
+        <v>0.8494031449032662</v>
       </c>
     </row>
     <row r="12">
@@ -1011,16 +1013,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>80.32482979956573</v>
+        <v>81.88859765222882</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6525726234074682</v>
+        <v>0.608252564082674</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8032482979956574</v>
+        <v>0.8188859765222883</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7947025527915639</v>
+        <v>0.8192809241177977</v>
       </c>
     </row>
     <row r="13">
@@ -1030,16 +1032,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80.20683569927075</v>
+        <v>82.65728942291888</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7109624383660654</v>
+        <v>0.5502743705913115</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8020683569927076</v>
+        <v>0.8265728942291888</v>
       </c>
       <c r="E13" t="n">
-        <v>0.777621498870225</v>
+        <v>0.8188626962228392</v>
       </c>
     </row>
     <row r="14">
@@ -1049,16 +1051,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>95.75221238938053</v>
+        <v>95.60471976401179</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1087296342548446</v>
+        <v>0.1154037005067342</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9575221238938052</v>
+        <v>0.956047197640118</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9575684032740671</v>
+        <v>0.9561653453207718</v>
       </c>
     </row>
     <row r="15">
@@ -1068,16 +1070,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>94.89675516224189</v>
+        <v>91.32743362831859</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1316012578904216</v>
+        <v>0.1854906996857001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9489675516224189</v>
+        <v>0.9132743362831859</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9492722485476207</v>
+        <v>0.9104717462637693</v>
       </c>
     </row>
     <row r="16">
@@ -1087,16 +1089,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.84070796460176</v>
+        <v>96.51917404129793</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1092617451290304</v>
+        <v>0.08568692428574044</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9584070796460177</v>
+        <v>0.9651917404129794</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9576411903754034</v>
+        <v>0.9645946854696159</v>
       </c>
     </row>
     <row r="17">
@@ -1106,16 +1108,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>86.93977168199262</v>
+        <v>87.76178571325589</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3657832831415626</v>
+        <v>0.331447264148329</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8693977168199264</v>
+        <v>0.8776178571325589</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8629483028375949</v>
+        <v>0.8732685478378631</v>
       </c>
     </row>
   </sheetData>
@@ -1171,16 +1173,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86.46069602678224</v>
+        <v>85.28023598820059</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3553661130911981</v>
+        <v>0.4179224534057236</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8646069602678225</v>
+        <v>0.8528023598820059</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8596254780177329</v>
+        <v>0.8458647911209709</v>
       </c>
     </row>
     <row r="3">
@@ -1190,16 +1192,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.58696874540438</v>
+        <v>80.25052119828027</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4047694401414144</v>
+        <v>0.4727679209512038</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8358696874540437</v>
+        <v>0.8025052119828026</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8281678875298079</v>
+        <v>0.7926564222326544</v>
       </c>
     </row>
     <row r="4">
@@ -1209,16 +1211,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.23928407685187</v>
+        <v>89.79351032448378</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2232383124891688</v>
+        <v>0.2629094697884284</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9123928407685188</v>
+        <v>0.8979351032448377</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9134356725018188</v>
+        <v>0.8961444000811385</v>
       </c>
     </row>
     <row r="5">
@@ -1228,16 +1230,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77.26044342944144</v>
+        <v>73.10729331568612</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7402481439523398</v>
+        <v>0.9954293971337999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7726044342944143</v>
+        <v>0.7310729331568612</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7530278431632055</v>
+        <v>0.6979208888080424</v>
       </c>
     </row>
     <row r="6">
@@ -1247,16 +1249,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.41716623846226</v>
+        <v>63.90375349267728</v>
       </c>
       <c r="C6" t="n">
-        <v>1.797568447269198</v>
+        <v>1.01785853067413</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5441716623846228</v>
+        <v>0.6390375349267726</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5095683352322297</v>
+        <v>0.6329171595316072</v>
       </c>
     </row>
     <row r="7">
@@ -1266,16 +1268,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.81111428299553</v>
+        <v>76.77557764340523</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6739546940972407</v>
+        <v>0.598846483665208</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7481111428299553</v>
+        <v>0.7677557764340521</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7414673875836046</v>
+        <v>0.7624806857194403</v>
       </c>
     </row>
     <row r="8">
@@ -1285,16 +1287,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85.78984247268575</v>
+        <v>83.86603690343343</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3994478650080661</v>
+        <v>0.414790647632132</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8578984247268575</v>
+        <v>0.8386603690343343</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8484619387792482</v>
+        <v>0.8312746705503982</v>
       </c>
     </row>
     <row r="9">
@@ -1304,16 +1306,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>83.57312779522314</v>
+        <v>83.24570281749843</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4305205022062486</v>
+        <v>0.4114893989327054</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8357312779522313</v>
+        <v>0.8324570281749842</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8346535885109168</v>
+        <v>0.8296944759155375</v>
       </c>
     </row>
     <row r="10">
@@ -1323,16 +1325,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.7405859912283</v>
+        <v>85.96562253998738</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4623521003484105</v>
+        <v>0.364563697471749</v>
       </c>
       <c r="D10" t="n">
-        <v>0.817405859912283</v>
+        <v>0.8596562253998737</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8057770828719869</v>
+        <v>0.8547298428139672</v>
       </c>
     </row>
     <row r="11">
@@ -1342,16 +1344,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>81.89448005605584</v>
+        <v>85.84191904774262</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5201059790551275</v>
+        <v>0.4028691723554705</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8189448005605584</v>
+        <v>0.8584191904774263</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8050876339979997</v>
+        <v>0.8489197755465504</v>
       </c>
     </row>
     <row r="12">
@@ -1361,16 +1363,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>75.19866088806997</v>
+        <v>77.16969869981574</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7224914425479558</v>
+        <v>0.6270556914969347</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7519866088806997</v>
+        <v>0.7716969869981575</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7505998477618736</v>
+        <v>0.7663559778785684</v>
       </c>
     </row>
     <row r="13">
@@ -1380,16 +1382,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>78.46919090995597</v>
+        <v>79.49990916876443</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7006149486949046</v>
+        <v>0.6126351898225646</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7846919090995597</v>
+        <v>0.7949990916876444</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7665004005450082</v>
+        <v>0.7879624517248759</v>
       </c>
     </row>
     <row r="14">
@@ -1399,16 +1401,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.59882005899706</v>
+        <v>93.68731563421829</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1753131292105536</v>
+        <v>0.1811798273086121</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9359882005899705</v>
+        <v>0.9368731563421828</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9361932797969927</v>
+        <v>0.9372516666863101</v>
       </c>
     </row>
     <row r="15">
@@ -1418,16 +1420,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>86.97531985570809</v>
+        <v>87.34824695715361</v>
       </c>
       <c r="C15" t="n">
-        <v>0.372346617635291</v>
+        <v>0.3648628494770189</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8697531985570809</v>
+        <v>0.8734824695715361</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8646567881937655</v>
+        <v>0.8687637858422127</v>
       </c>
     </row>
     <row r="16">
@@ -1437,16 +1439,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.96165191740413</v>
+        <v>96.66666666666667</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08905399490510414</v>
+        <v>0.0947737056031959</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9696165191740412</v>
+        <v>0.9666666666666666</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9691755461854991</v>
+        <v>0.9662245673123213</v>
       </c>
     </row>
     <row r="17">
@@ -1456,16 +1458,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.13182351635106</v>
+        <v>82.82680069320094</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5378261153768148</v>
+        <v>0.4826636290479251</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8213182351635105</v>
+        <v>0.8282680069320094</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8124265807114458</v>
+        <v>0.821277437450973</v>
       </c>
     </row>
   </sheetData>
@@ -1521,16 +1523,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79.79921971643353</v>
+        <v>85.93231775361377</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5571828372776508</v>
+        <v>0.3785648786685973</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7979921971643353</v>
+        <v>0.8593231775361378</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7889925134197748</v>
+        <v>0.853884449309249</v>
       </c>
     </row>
     <row r="3">
@@ -1540,16 +1542,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.31054766909747</v>
+        <v>77.55551518611753</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5418966371447217</v>
+        <v>0.5767936719271044</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7931054766909749</v>
+        <v>0.7755551518611753</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7868782898397845</v>
+        <v>0.7657714196125405</v>
       </c>
     </row>
     <row r="4">
@@ -1559,16 +1561,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.75915016565888</v>
+        <v>90.47214941305721</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3254000686079962</v>
+        <v>0.2350281146975855</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8775915016565887</v>
+        <v>0.904721494130572</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8777390408053695</v>
+        <v>0.9054556812644506</v>
       </c>
     </row>
     <row r="5">
@@ -1578,16 +1580,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74.87538819539961</v>
+        <v>74.84917689599391</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7632522051533063</v>
+        <v>0.8366439050994814</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7487538819539962</v>
+        <v>0.7484917689599391</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7419616048416301</v>
+        <v>0.7303527688846188</v>
       </c>
     </row>
     <row r="6">
@@ -1597,16 +1599,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.49080009342642</v>
+        <v>62.88384847619788</v>
       </c>
       <c r="C6" t="n">
-        <v>1.399567238030916</v>
+        <v>1.038466737908311</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5649080009342641</v>
+        <v>0.6288384847619789</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5124274930057203</v>
+        <v>0.5921410431095433</v>
       </c>
     </row>
     <row r="7">
@@ -1616,16 +1618,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.35566051609443</v>
+        <v>75.86717878182337</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6438966161261003</v>
+        <v>0.6344516113400459</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7435566051609444</v>
+        <v>0.7586717878182336</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7416145974368891</v>
+        <v>0.7554639813213148</v>
       </c>
     </row>
     <row r="8">
@@ -1635,16 +1637,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79.04004359899307</v>
+        <v>82.27484666822377</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5836934115116794</v>
+        <v>0.5414160264655947</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7904004359899307</v>
+        <v>0.8227484666822378</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7890964918676496</v>
+        <v>0.8068658520571945</v>
       </c>
     </row>
     <row r="9">
@@ -1654,16 +1656,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>79.72992845958875</v>
+        <v>79.0903900552773</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4975575241415451</v>
+        <v>0.494721063884208</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7972992845958875</v>
+        <v>0.7909039005527729</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7902174641973974</v>
+        <v>0.7860713192146676</v>
       </c>
     </row>
     <row r="10">
@@ -1673,16 +1675,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>84.49640567824981</v>
+        <v>85.64615610861685</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3903992517540852</v>
+        <v>0.3447352334546546</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8449640567824982</v>
+        <v>0.8564615610861687</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8434974115460957</v>
+        <v>0.8539501450189805</v>
       </c>
     </row>
     <row r="11">
@@ -1692,16 +1694,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>76.24235503767333</v>
+        <v>84.10133305651433</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5607613437343388</v>
+        <v>0.4695678125135601</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7624235503767334</v>
+        <v>0.8410133305651433</v>
       </c>
       <c r="E11" t="n">
-        <v>0.752145994145817</v>
+        <v>0.8308289081929781</v>
       </c>
     </row>
     <row r="12">
@@ -1711,16 +1713,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>70.04749176030934</v>
+        <v>74.9878459156221</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7814304267366727</v>
+        <v>0.6641584399466713</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7004749176030934</v>
+        <v>0.7498784591562211</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6929219198525787</v>
+        <v>0.7490144269182339</v>
       </c>
     </row>
     <row r="13">
@@ -1730,16 +1732,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.87987785361466</v>
+        <v>80.62171818095312</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6986401309569678</v>
+        <v>0.5187768568828081</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7387987785361465</v>
+        <v>0.8062171818095312</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7254985379366903</v>
+        <v>0.8035723366744968</v>
       </c>
     </row>
     <row r="14">
@@ -1749,16 +1751,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.04990527599719</v>
+        <v>93.03834808259587</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2850675636136051</v>
+        <v>0.1936842681194927</v>
       </c>
       <c r="D14" t="n">
-        <v>0.890499052759972</v>
+        <v>0.9303834808259588</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8912864406193902</v>
+        <v>0.9307176858219268</v>
       </c>
     </row>
     <row r="15">
@@ -1768,16 +1770,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>83.99579581138245</v>
+        <v>88.0543084282736</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4464405361581157</v>
+        <v>0.3040170559526208</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8399579581138245</v>
+        <v>0.880543084282736</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8271218577643585</v>
+        <v>0.8719903967553797</v>
       </c>
     </row>
     <row r="16">
@@ -1787,16 +1789,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90.79646017699115</v>
+        <v>94.04337407763043</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2591540568935063</v>
+        <v>0.1659847506263759</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9079646017699116</v>
+        <v>0.9404337407763043</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9037035070938606</v>
+        <v>0.9375338594020342</v>
       </c>
     </row>
     <row r="17">
@@ -1806,16 +1808,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>78.65793533392733</v>
+        <v>81.9612338053674</v>
       </c>
       <c r="C17" t="n">
-        <v>0.582289323189414</v>
+        <v>0.4931340284991409</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7865793533392735</v>
+        <v>0.8196123380536743</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7776735442915339</v>
+        <v>0.8115742849038405</v>
       </c>
     </row>
   </sheetData>
@@ -1871,16 +1873,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70.53694236109308</v>
+        <v>77.4921928390384</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6612313988308112</v>
+        <v>0.6518341734539718</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7053694236109309</v>
+        <v>0.774921928390384</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6988471400844728</v>
+        <v>0.7659872344713609</v>
       </c>
     </row>
     <row r="3">
@@ -1890,16 +1892,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.25392088166852</v>
+        <v>78.83839825604028</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6557129969665161</v>
+        <v>0.5486253840538363</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7325392088166852</v>
+        <v>0.7883839825604028</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7252309491866764</v>
+        <v>0.7777775965815505</v>
       </c>
     </row>
     <row r="4">
@@ -1909,16 +1911,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.3081428040035</v>
+        <v>87.22869574996324</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4864994935070476</v>
+        <v>0.3138588113710284</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8130814280400349</v>
+        <v>0.8722869574996324</v>
       </c>
       <c r="E4" t="n">
-        <v>0.806297532029658</v>
+        <v>0.8716719454908561</v>
       </c>
     </row>
     <row r="5">
@@ -1928,16 +1930,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65.30878294794937</v>
+        <v>73.16551181238592</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9735426127910614</v>
+        <v>0.8077827058111628</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6530878294794937</v>
+        <v>0.7316551181238592</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6341308818391245</v>
+        <v>0.7142078911883988</v>
       </c>
     </row>
     <row r="6">
@@ -1947,16 +1949,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.14510506146247</v>
+        <v>66.54235763285149</v>
       </c>
       <c r="C6" t="n">
-        <v>1.407757702562958</v>
+        <v>0.8611786782120665</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5414510506146246</v>
+        <v>0.665423576328515</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5020339906896443</v>
+        <v>0.6442622818705113</v>
       </c>
     </row>
     <row r="7">
@@ -1966,16 +1968,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65.41492573465169</v>
+        <v>67.3093192847689</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8677422801653544</v>
+        <v>0.8850220443060002</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6541492573465169</v>
+        <v>0.673093192847689</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6432045752250666</v>
+        <v>0.6637393775585</v>
       </c>
     </row>
     <row r="8">
@@ -1985,16 +1987,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.69199560549832</v>
+        <v>76.23232034879194</v>
       </c>
       <c r="C8" t="n">
-        <v>1.4229875639081</v>
+        <v>0.6835422774155935</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5469199560549832</v>
+        <v>0.7623232034879195</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5028634761182331</v>
+        <v>0.7436820982724652</v>
       </c>
     </row>
     <row r="9">
@@ -2004,16 +2006,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>73.88904748310972</v>
+        <v>75.88612358238393</v>
       </c>
       <c r="C9" t="n">
-        <v>0.594186332821846</v>
+        <v>0.5957942213242252</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7388904748310972</v>
+        <v>0.7588612358238394</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7374135604697371</v>
+        <v>0.7556145603807329</v>
       </c>
     </row>
     <row r="10">
@@ -2023,16 +2025,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>70.29922404173047</v>
+        <v>81.04213704270799</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6744149123628934</v>
+        <v>0.4573989835257332</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7029922404173047</v>
+        <v>0.8104213704270797</v>
       </c>
       <c r="E10" t="n">
-        <v>0.695175441898132</v>
+        <v>0.8015915510349796</v>
       </c>
     </row>
     <row r="11">
@@ -2042,16 +2044,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>63.79752420003634</v>
+        <v>82.89587280166784</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8809577771152058</v>
+        <v>0.4225553192848261</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6379752420003634</v>
+        <v>0.8289587280166784</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6210720091574109</v>
+        <v>0.8247468632354978</v>
       </c>
     </row>
     <row r="12">
@@ -2061,16 +2063,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>54.41509009593509</v>
+        <v>69.77075926262339</v>
       </c>
       <c r="C12" t="n">
-        <v>0.981497082238396</v>
+        <v>0.8151930626792213</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5441509009593509</v>
+        <v>0.6977075926262338</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5333400245661741</v>
+        <v>0.6823911376501957</v>
       </c>
     </row>
     <row r="13">
@@ -2080,16 +2082,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.0590662548984</v>
+        <v>78.23925812507028</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7976756076018016</v>
+        <v>0.6134202795724074</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6805906625489839</v>
+        <v>0.7823925812507029</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6737968182169126</v>
+        <v>0.7747904318217118</v>
       </c>
     </row>
     <row r="14">
@@ -2099,16 +2101,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>72.10001816624711</v>
+        <v>90.67846607669617</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6106142416596413</v>
+        <v>0.2631770306043715</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7210001816624712</v>
+        <v>0.9067846607669617</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7163737293799692</v>
+        <v>0.9060426190020449</v>
       </c>
     </row>
     <row r="15">
@@ -2118,16 +2120,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>78.87914255313628</v>
+        <v>82.9857524719072</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4711250248132274</v>
+        <v>0.4233644145179521</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7887914255313627</v>
+        <v>0.8298575247190719</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7755181917184887</v>
+        <v>0.817258251241735</v>
       </c>
     </row>
     <row r="16">
@@ -2137,16 +2139,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.94407391067396</v>
+        <v>93.4221749323091</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4128799654077738</v>
+        <v>0.1813666387228295</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8494407391067398</v>
+        <v>0.934221749323091</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8409697870543071</v>
+        <v>0.9316841381764694</v>
       </c>
     </row>
     <row r="17">
@@ -2156,16 +2158,716 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.73620014013962</v>
+        <v>78.78195601461374</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7932549995168423</v>
+        <v>0.5682742683236818</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6873620014013962</v>
+        <v>0.7878195601461374</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6737512071756004</v>
+        <v>0.7783631985318008</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>73.99441171636434</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6335485779990753</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7399441171636433</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7351799777681316</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>71.0085727385185</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7128495380903284</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7100857273851851</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7010371199516691</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>76.20887723942249</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6348595234254996</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7620887723942248</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7579007585425179</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>71.19464701251741</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7921351142227649</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7119464701251741</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7039994207100816</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>62.09724997621087</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9510030082504576</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6209724997621087</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6061202485154711</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>71.88903018192198</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7897313396135967</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.71889030181922</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7066852318471771</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>67.62965077552573</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7739295035600662</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6762965077552574</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6683355213252171</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>61.24629105788112</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.075481840968132</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6124629105788112</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5887157491004664</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>70.03269924480315</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.711261925349633</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7003269924480315</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6916200499998651</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>73.11551137985623</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6916399766380589</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7311551137985622</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.72392196128729</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>64.38515904116818</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9558060706903537</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6438515904116817</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6328180709110744</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>69.02248289345064</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7731950134038925</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6902248289345063</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6811659805632874</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>80.15043382728224</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6374673785020908</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8015043382728224</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7951674278068547</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>81.54482305210253</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4521245038369671</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8154482305210253</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8112393947920229</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>91.81688422910233</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2475630011719962</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9181688422910232</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9185673409650297</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>72.35578162440851</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7221730877148608</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7235578162440852</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7148316169390772</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>56.39374043028054</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.107741858561834</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5639374043028054</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5444191592086193</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>54.67988477408974</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9450208812952041</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5467988477408974</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5233723078318404</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>62.80296542357632</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8782097712159157</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6280296542357633</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6232572263117476</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>59.05137587695395</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.015055802464485</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5905137587695395</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5793442935318319</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>58.8037958805872</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.065465052674214</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.588037958805872</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5547852216491292</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>56.21380807792455</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.024796218673388</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5621380807792454</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.545156775473209</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>38.65327554736633</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.427145979305108</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3865327554736633</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3114801450120045</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>50.05484476509312</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.119244013230006</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5005484476509312</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5015581407384836</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>47.28890388325159</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.137655901908875</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4728890388325159</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4364274405686438</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>58.43190685040528</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9602351317803064</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5843190685040528</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5548703490755678</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>56.74357044611113</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9217621495326359</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5674357044611112</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5676014388084948</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>54.73732471734185</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9954758509993553</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5473732471734184</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5215631023966785</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>70.47569615654115</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7741545215249062</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7047569615654115</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6942263593451841</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>77.96209309769115</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5058384621865116</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7796209309769115</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7754776921247084</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>89.52291974844073</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3202676444003979</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8952291974844073</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8947121295217932</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>59.45440704504365</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9465379493168763</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5945440704504364</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5752167854398624</v>
       </c>
     </row>
   </sheetData>
